--- a/我的创作/财务/证券投资/股票/我国能源需要和供给结构变化.xlsx
+++ b/我的创作/财务/证券投资/股票/我国能源需要和供给结构变化.xlsx
@@ -1529,7 +1529,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB6" sqref="AB6"/>
+      <selection pane="bottomRight" activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>

--- a/我的创作/财务/证券投资/股票/我国能源需要和供给结构变化.xlsx
+++ b/我的创作/财务/证券投资/股票/我国能源需要和供给结构变化.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>能源类型</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>分别装机容量及其变化</t>
+  </si>
+  <si>
+    <t>装机容量结构变化</t>
   </si>
   <si>
     <t>增量1</t>
@@ -105,8 +108,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -812,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,6 +829,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,6 +866,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
@@ -1212,10 +1225,10 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1230,16 +1243,16 @@
       <c r="B2" s="2">
         <v>2015</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1260,10 +1273,10 @@
       <c r="P2" s="2">
         <v>2021</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="T2" s="2">
@@ -1280,20 +1293,20 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="20">
         <v>43.4</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="21">
         <f>C3-B3</f>
         <v>6.4</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="22">
         <v>0.638</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="22">
         <v>0.568</v>
       </c>
       <c r="G3" s="3">
@@ -1355,13 +1368,13 @@
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22">
         <v>0.183</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="22">
         <v>0.189</v>
       </c>
       <c r="G4" s="3">
@@ -1423,13 +1436,13 @@
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22">
         <v>0.059</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="22">
         <v>0.084</v>
       </c>
       <c r="G5" s="3">
@@ -1485,13 +1498,13 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22">
         <v>0.12</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="22">
         <v>0.159</v>
       </c>
       <c r="G6" s="3">
@@ -1522,14 +1535,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB7" sqref="AB7"/>
+      <selection pane="bottomRight" activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1540,441 +1553,478 @@
     <col min="20" max="24" width="9.14285714285714" style="2"/>
     <col min="25" max="25" width="12.7857142857143" style="3"/>
     <col min="26" max="28" width="9.14285714285714" style="3"/>
+    <col min="29" max="30" width="12.0714285714286" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
       <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="AC1" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8">
+    <row r="2" spans="1:30">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9">
         <v>2017</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>2018</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <v>2019</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <v>2020</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <v>2021</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2017</v>
+      </c>
+      <c r="L2" s="9">
+        <v>2018</v>
+      </c>
+      <c r="M2" s="9">
+        <v>2019</v>
+      </c>
+      <c r="N2" s="9">
+        <v>2020</v>
+      </c>
+      <c r="O2" s="9">
+        <v>2021</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="16">
+        <v>2017</v>
+      </c>
+      <c r="U2" s="16">
+        <v>2018</v>
+      </c>
+      <c r="V2" s="16">
+        <v>2019</v>
+      </c>
+      <c r="W2" s="16">
+        <v>2020</v>
+      </c>
+      <c r="X2" s="16">
+        <v>2021</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="17">
+        <v>2015</v>
+      </c>
+      <c r="AD2" s="17">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9">
+        <v>17.77</v>
+      </c>
+      <c r="C3" s="9">
         <v>19</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="8">
-        <v>2017</v>
-      </c>
-      <c r="L2" s="8">
-        <v>2018</v>
-      </c>
-      <c r="M2" s="8">
-        <v>2019</v>
-      </c>
-      <c r="N2" s="8">
-        <v>2020</v>
-      </c>
-      <c r="O2" s="8">
-        <v>2021</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="15">
-        <v>2017</v>
-      </c>
-      <c r="U2" s="15">
-        <v>2018</v>
-      </c>
-      <c r="V2" s="15">
-        <v>2019</v>
-      </c>
-      <c r="W2" s="15">
-        <v>2020</v>
-      </c>
-      <c r="X2" s="15">
-        <v>2021</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="8">
-        <v>17.77</v>
-      </c>
-      <c r="C3" s="8">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>20.11</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>22.01</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>23.77</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <f>(C3-B3)/B3</f>
         <v>0.0692177827799663</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <f>(D3-C3)/C3</f>
         <v>0.0584210526315789</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <f>(E3-D3)/D3</f>
         <v>0.0944803580308305</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="11">
         <f>(F3-E3)/E3</f>
         <v>0.0799636528850522</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="9">
         <v>64951.4</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="9">
         <v>71117.7</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="9">
         <v>75034.3</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="9">
         <v>77790.6</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="9">
         <v>85442.5</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="10">
         <f>(L3-K3)/K3</f>
         <v>0.0949371376136618</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="10">
         <f>(M3-L3)/L3</f>
         <v>0.0550720847271496</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="10">
         <f>(N3-M3)/M3</f>
         <v>0.0367338670448049</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="10">
         <f>(O3-N3)/N3</f>
         <v>0.0983653551971574</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="16">
         <v>11.06</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="16">
         <v>11.44</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="16">
         <v>11.91</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="16">
         <v>12.45</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="16">
         <v>12.97</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="10">
         <f>(U3-T3)/T3</f>
         <v>0.0343580470162748</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="10">
         <f>(V3-U3)/U3</f>
         <v>0.0410839160839161</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="10">
         <f>(W3-V3)/V3</f>
         <v>0.0453400503778337</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="10">
         <f>(X3-W3)/W3</f>
         <v>0.0417670682730925</v>
       </c>
+      <c r="AC3" s="18">
+        <v>0.656</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>0.546</v>
+      </c>
     </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="15">
+    <row r="4" spans="1:30">
+      <c r="A4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="16">
         <v>3.41</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="16">
         <v>3.52</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="16">
         <v>3.56</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="16">
         <v>3.7</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="16">
         <v>3.91</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Y4" s="10">
         <f>(U4-T4)/T4</f>
         <v>0.032258064516129</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="10">
         <f>(V4-U4)/U4</f>
         <v>0.0113636363636364</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AA4" s="10">
         <f>(W4-V4)/V4</f>
         <v>0.0393258426966292</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="10">
         <f>(X4-W4)/W4</f>
         <v>0.0567567567567567</v>
       </c>
+      <c r="AC4" s="18">
+        <v>0.212</v>
+      </c>
+      <c r="AD4" s="18">
+        <v>0.164</v>
+      </c>
     </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="15">
+    <row r="5" spans="1:30">
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="16">
         <v>1.3</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="16">
         <v>1.75</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="16">
         <v>2.05</v>
       </c>
-      <c r="W5" s="15">
+      <c r="W5" s="16">
         <v>2.53</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="16">
         <v>3.07</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5" s="10">
         <f>(U5-T5)/T5</f>
         <v>0.346153846153846</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="10">
         <f>(V5-U5)/U5</f>
         <v>0.171428571428571</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA5" s="10">
         <f>(W5-V5)/V5</f>
         <v>0.234146341463415</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="10">
         <f>(X5-W5)/W5</f>
         <v>0.213438735177866</v>
       </c>
+      <c r="AC5" s="18">
+        <v>0.115</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>0.268</v>
+      </c>
     </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="15">
+    <row r="6" spans="1:30">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="16">
         <v>1.64</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U6" s="16">
         <v>1.84</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="16">
         <v>2.1</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="16">
         <v>2.82</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="16">
         <v>3.28</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="10">
         <f>(U6-T6)/T6</f>
         <v>0.121951219512195</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="10">
         <f>(V6-U6)/U6</f>
         <v>0.141304347826087</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AA6" s="10">
         <f>(W6-V6)/V6</f>
         <v>0.342857142857143</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="10">
         <f>(X6-W6)/W6</f>
         <v>0.163120567375887</v>
       </c>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
     </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="15">
+    <row r="7" spans="1:30">
+      <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="16">
         <v>0.36</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="16">
         <v>0.45</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="16">
         <v>0.49</v>
       </c>
-      <c r="W7" s="15">
+      <c r="W7" s="16">
         <v>0.5</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="16">
         <v>0.53</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="Y7" s="10">
         <f>(U7-T7)/T7</f>
         <v>0.25</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="10">
         <f>(V7-U7)/U7</f>
         <v>0.0888888888888888</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AA7" s="10">
         <f>(W7-V7)/V7</f>
         <v>0.0204081632653061</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AB7" s="10">
         <f>(X7-W7)/W7</f>
         <v>0.0600000000000001</v>
       </c>
+      <c r="AC7" s="18">
+        <v>0.017</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>0.022</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="25">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
@@ -1994,6 +2044,8 @@
     <mergeCell ref="Q3:Q7"/>
     <mergeCell ref="R3:R7"/>
     <mergeCell ref="S3:S7"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/财务/证券投资/股票/我国能源需要和供给结构变化.xlsx
+++ b/我的创作/财务/证券投资/股票/我国能源需要和供给结构变化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="8940" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="能源总量及其结构变化" sheetId="1" r:id="rId1"/>
@@ -1207,8 +1207,8 @@
   <sheetPr/>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
@@ -1537,7 +1537,7 @@
   <sheetPr/>
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
